--- a/entries.xlsx
+++ b/entries.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NATION</t>
   </si>
@@ -28,7 +28,16 @@
     <t>URL</t>
   </si>
   <si>
-    <t/>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -47,13 +56,13 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -90,11 +99,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,18 +433,18 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
